--- a/tp_transportation_network/tp_landuse_df.xlsx
+++ b/tp_transportation_network/tp_landuse_df.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2203" yWindow="0" windowWidth="17134" windowHeight="7929"/>
+    <workbookView xWindow="6609" yWindow="0" windowWidth="17134" windowHeight="7929"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -17,17 +17,17 @@
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">tp_landuse_df!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">tp_landuse_df!$A$1:$F$255</definedName>
   </definedNames>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId4"/>
+    <pivotCache cacheId="1" r:id="rId4"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="760">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="761">
   <si>
     <t>color</t>
   </si>
@@ -2310,6 +2310,9 @@
   <si>
     <t>學校用地依據函訂定臺北市大專學校容積率標準(http://www.dbaweb.tcg.gov.tw/TempRules/rules/front/Rule_show.aspx?entry=942)、函訂定臺北市私立各級學校容積率標準(http://www.dbaweb.tcg.gov.tw/TempRules/rules/front/Rule_show.aspx?entry=941)</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(空白)</t>
   </si>
 </sst>
 </file>
@@ -2318,7 +2321,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -2918,7 +2921,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1">
@@ -2930,7 +2933,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -2982,36 +2985,12 @@
     <cellStyle name="适中" xfId="9" builtinId="28" customBuiltin="1"/>
     <cellStyle name="链接单元格" xfId="13" builtinId="24" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="2">
     <dxf>
-      <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3571,10 +3550,10 @@
     <cacheField name="zone_code" numFmtId="0">
       <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="7" maxValue="7"/>
     </cacheField>
-    <cacheField name="number" numFmtId="177">
+    <cacheField name="number" numFmtId="176">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="4941"/>
     </cacheField>
-    <cacheField name="area" numFmtId="177">
+    <cacheField name="area" numFmtId="176">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="88.726714603362893" maxValue="1343167530.4974799"/>
     </cacheField>
   </cacheFields>
@@ -5624,8 +5603,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:C121" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:C119" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
       <items count="21">
@@ -5652,7 +5631,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField showAll="0" sortType="descending">
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
       <items count="253">
         <item x="185"/>
         <item x="100"/>
@@ -5918,7 +5897,7 @@
         </pivotArea>
       </autoSortScope>
     </pivotField>
-    <pivotField axis="axisRow" showAll="0" sortType="descending">
+    <pivotField showAll="0" sortType="descending">
       <items count="253">
         <item x="187"/>
         <item x="230"/>
@@ -6185,139 +6164,133 @@
       </autoSortScope>
     </pivotField>
     <pivotField showAll="0"/>
-    <pivotField dataField="1" numFmtId="177" showAll="0"/>
-    <pivotField dataField="1" numFmtId="177" showAll="0"/>
+    <pivotField dataField="1" numFmtId="176" showAll="0"/>
+    <pivotField dataField="1" numFmtId="176" showAll="0"/>
   </pivotFields>
   <rowFields count="2">
     <field x="0"/>
-    <field x="2"/>
+    <field x="1"/>
   </rowFields>
-  <rowItems count="118">
+  <rowItems count="116">
     <i>
       <x/>
     </i>
     <i r="1">
-      <x v="65"/>
-    </i>
-    <i r="1">
-      <x v="187"/>
-    </i>
-    <i r="1">
-      <x v="195"/>
+      <x v="251"/>
     </i>
     <i>
       <x v="1"/>
     </i>
     <i r="1">
-      <x v="138"/>
+      <x v="37"/>
     </i>
     <i r="1">
-      <x v="135"/>
+      <x v="36"/>
     </i>
     <i r="1">
-      <x v="140"/>
+      <x v="45"/>
     </i>
     <i r="1">
-      <x v="136"/>
-    </i>
-    <i r="1">
-      <x v="132"/>
-    </i>
-    <i r="1">
-      <x v="161"/>
-    </i>
-    <i r="1">
-      <x v="133"/>
+      <x v="44"/>
     </i>
     <i r="1">
       <x v="142"/>
     </i>
     <i r="1">
-      <x v="33"/>
+      <x v="195"/>
     </i>
     <i r="1">
-      <x v="137"/>
+      <x v="48"/>
     </i>
     <i r="1">
-      <x v="167"/>
+      <x v="49"/>
     </i>
     <i r="1">
-      <x v="166"/>
+      <x v="58"/>
     </i>
     <i r="1">
-      <x v="134"/>
+      <x v="27"/>
+    </i>
+    <i r="1">
+      <x v="193"/>
+    </i>
+    <i r="1">
+      <x v="191"/>
+    </i>
+    <i r="1">
+      <x v="26"/>
+    </i>
+    <i r="1">
+      <x v="219"/>
+    </i>
+    <i r="1">
+      <x v="128"/>
+    </i>
+    <i r="1">
+      <x v="198"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="220"/>
+    </i>
+    <i r="1">
+      <x v="74"/>
+    </i>
+    <i r="1">
+      <x v="126"/>
     </i>
     <i r="1">
       <x v="197"/>
     </i>
     <i r="1">
-      <x v="114"/>
+      <x v="97"/>
     </i>
     <i r="1">
-      <x v="162"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="198"/>
-    </i>
-    <i r="1">
-      <x v="51"/>
-    </i>
-    <i r="1">
-      <x v="112"/>
-    </i>
-    <i r="1">
-      <x v="165"/>
-    </i>
-    <i r="1">
-      <x v="78"/>
-    </i>
-    <i r="1">
-      <x v="61"/>
+      <x v="190"/>
     </i>
     <i r="1">
       <x v="143"/>
     </i>
     <i r="1">
-      <x v="246"/>
+      <x v="243"/>
     </i>
     <i r="1">
-      <x v="183"/>
+      <x v="209"/>
     </i>
     <i r="1">
-      <x v="139"/>
+      <x v="38"/>
     </i>
     <i r="1">
-      <x v="48"/>
+      <x v="71"/>
     </i>
     <i r="1">
-      <x v="111"/>
+      <x v="125"/>
     </i>
     <i r="1">
       <x v="10"/>
     </i>
     <i r="1">
-      <x v="91"/>
+      <x v="109"/>
     </i>
     <i r="1">
       <x v="6"/>
     </i>
     <i r="1">
-      <x v="214"/>
+      <x v="70"/>
     </i>
     <i r="1">
-      <x v="204"/>
+      <x v="225"/>
     </i>
     <i r="1">
-      <x v="66"/>
+      <x v="86"/>
     </i>
     <i r="1">
-      <x v="205"/>
+      <x v="226"/>
     </i>
     <i r="1">
-      <x v="89"/>
+      <x v="107"/>
     </i>
     <i r="1">
       <x v="147"/>
@@ -6326,94 +6299,94 @@
       <x v="141"/>
     </i>
     <i r="1">
-      <x v="82"/>
+      <x v="99"/>
     </i>
     <i r="1">
-      <x v="97"/>
+      <x v="114"/>
     </i>
     <i r="1">
-      <x v="178"/>
+      <x v="207"/>
     </i>
     <i r="1">
-      <x v="92"/>
+      <x v="110"/>
     </i>
     <i r="1">
-      <x v="32"/>
+      <x v="59"/>
     </i>
     <i>
       <x v="2"/>
     </i>
     <i r="1">
-      <x v="230"/>
+      <x v="39"/>
     </i>
     <i r="1">
-      <x v="224"/>
+      <x v="28"/>
     </i>
     <i r="1">
-      <x v="220"/>
+      <x v="237"/>
     </i>
     <i r="1">
-      <x v="238"/>
+      <x v="46"/>
     </i>
     <i r="1">
-      <x v="222"/>
+      <x v="50"/>
     </i>
     <i r="1">
-      <x v="235"/>
-    </i>
-    <i r="1">
-      <x v="233"/>
-    </i>
-    <i r="1">
-      <x v="243"/>
-    </i>
-    <i r="1">
-      <x v="231"/>
-    </i>
-    <i r="1">
-      <x v="168"/>
+      <x v="32"/>
     </i>
     <i r="1">
       <x v="34"/>
     </i>
     <i r="1">
-      <x v="190"/>
+      <x v="239"/>
     </i>
     <i r="1">
-      <x v="234"/>
+      <x v="40"/>
     </i>
     <i r="1">
-      <x v="242"/>
+      <x v="194"/>
     </i>
     <i r="1">
-      <x v="229"/>
+      <x v="60"/>
     </i>
     <i r="1">
-      <x v="244"/>
+      <x v="192"/>
     </i>
     <i r="1">
-      <x v="232"/>
+      <x v="35"/>
     </i>
     <i r="1">
       <x v="236"/>
     </i>
     <i r="1">
-      <x v="165"/>
-    </i>
-    <i r="1">
-      <x v="240"/>
-    </i>
-    <i r="1">
-      <x v="237"/>
+      <x v="30"/>
     </i>
     <i r="1">
       <x v="241"/>
     </i>
     <i r="1">
-      <x v="163"/>
+      <x v="41"/>
     </i>
     <i r="1">
-      <x v="162"/>
+      <x v="33"/>
+    </i>
+    <i r="1">
+      <x v="201"/>
+    </i>
+    <i r="1">
+      <x v="42"/>
+    </i>
+    <i r="1">
+      <x v="21"/>
+    </i>
+    <i r="1">
+      <x v="43"/>
+    </i>
+    <i r="1">
+      <x v="199"/>
+    </i>
+    <i r="1">
+      <x v="196"/>
     </i>
     <i r="1">
       <x v="153"/>
@@ -6422,34 +6395,34 @@
       <x v="4"/>
     </i>
     <i r="1">
-      <x v="223"/>
+      <x v="51"/>
     </i>
     <i r="1">
-      <x v="227"/>
+      <x v="25"/>
     </i>
     <i r="1">
-      <x v="164"/>
+      <x v="200"/>
     </i>
     <i r="1">
-      <x v="225"/>
+      <x v="29"/>
     </i>
     <i r="1">
-      <x v="239"/>
+      <x v="47"/>
     </i>
     <i r="1">
-      <x v="221"/>
+      <x v="238"/>
     </i>
     <i r="1">
-      <x v="79"/>
+      <x v="98"/>
     </i>
     <i r="1">
-      <x v="226"/>
+      <x v="24"/>
     </i>
     <i r="1">
-      <x v="150"/>
+      <x v="240"/>
     </i>
     <i r="1">
-      <x v="228"/>
+      <x v="23"/>
     </i>
     <i r="1">
       <x v="5"/>
@@ -6464,34 +6437,34 @@
       <x v="5"/>
     </i>
     <i r="1">
-      <x v="47"/>
+      <x v="22"/>
     </i>
     <i r="1">
-      <x v="103"/>
+      <x v="119"/>
     </i>
     <i r="1">
-      <x v="102"/>
+      <x v="118"/>
     </i>
     <i r="1">
-      <x v="105"/>
+      <x v="121"/>
     </i>
     <i r="1">
-      <x v="46"/>
+      <x v="31"/>
     </i>
     <i r="1">
-      <x v="107"/>
+      <x v="117"/>
     </i>
     <i r="1">
-      <x v="106"/>
+      <x v="122"/>
     </i>
     <i r="1">
-      <x v="104"/>
+      <x v="120"/>
     </i>
     <i r="1">
-      <x v="45"/>
+      <x v="140"/>
     </i>
     <i r="1">
-      <x v="44"/>
+      <x v="137"/>
     </i>
     <i r="1">
       <x v="8"/>
@@ -6564,10 +6537,10 @@
     <dataField name="求和项:area" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="9">
+    <format dxfId="1">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="8">
+    <format dxfId="0">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -6853,12 +6826,12 @@
   <dimension ref="A3:C276"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+      <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15"/>
   <cols>
-    <col min="1" max="1" width="19.3828125" customWidth="1"/>
+    <col min="1" max="1" width="38.61328125" customWidth="1"/>
     <col min="2" max="2" width="17.61328125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.921875" style="1" bestFit="1" customWidth="1"/>
   </cols>
@@ -6887,1290 +6860,1276 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>6</v>
+        <v>760</v>
       </c>
       <c r="B5" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C5" s="5">
-        <v>1343167530.4974799</v>
+        <v>2062797040.2952378</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="4" t="s">
-        <v>5</v>
+      <c r="A6" s="3">
+        <v>3</v>
       </c>
       <c r="B6" s="5">
-        <v>1</v>
+        <v>3138</v>
       </c>
       <c r="C6" s="5">
-        <v>671583765.24874198</v>
+        <v>10465413.170130698</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
-        <v>7</v>
+        <v>527</v>
       </c>
       <c r="B7" s="5">
-        <v>1</v>
+        <v>1391</v>
       </c>
       <c r="C7" s="5">
-        <v>48045744.549015701</v>
+        <v>3216470.5767091499</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="3">
-        <v>3</v>
+      <c r="A8" s="4" t="s">
+        <v>524</v>
       </c>
       <c r="B8" s="5">
-        <v>3138</v>
+        <v>436</v>
       </c>
       <c r="C8" s="5">
-        <v>10465413.170130696</v>
+        <v>1636164.1734957099</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="4" t="s">
-        <v>528</v>
+        <v>542</v>
       </c>
       <c r="B9" s="5">
-        <v>1391</v>
+        <v>258</v>
       </c>
       <c r="C9" s="5">
-        <v>3216470.5767091499</v>
+        <v>864626.26511586702</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="4" t="s">
-        <v>525</v>
+        <v>539</v>
       </c>
       <c r="B10" s="5">
-        <v>436</v>
+        <v>191</v>
       </c>
       <c r="C10" s="5">
-        <v>1636164.1734957099</v>
+        <v>685972.34680790699</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="4" t="s">
-        <v>543</v>
+        <v>446</v>
       </c>
       <c r="B11" s="5">
-        <v>258</v>
+        <v>33</v>
       </c>
       <c r="C11" s="5">
-        <v>864626.26511586702</v>
+        <v>555449.25452804496</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="4" t="s">
-        <v>540</v>
+        <v>497</v>
       </c>
       <c r="B12" s="5">
-        <v>191</v>
+        <v>18</v>
       </c>
       <c r="C12" s="5">
-        <v>685972.34680790699</v>
+        <v>408038.24913036497</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="4" t="s">
-        <v>447</v>
+        <v>518</v>
       </c>
       <c r="B13" s="5">
-        <v>33</v>
+        <v>117</v>
       </c>
       <c r="C13" s="5">
-        <v>555449.25452804496</v>
+        <v>378121.76567523699</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="4" t="s">
-        <v>498</v>
+        <v>521</v>
       </c>
       <c r="B14" s="5">
-        <v>18</v>
+        <v>108</v>
       </c>
       <c r="C14" s="5">
-        <v>408038.24913036497</v>
+        <v>328797.08775496302</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="4" t="s">
-        <v>519</v>
+        <v>470</v>
       </c>
       <c r="B15" s="5">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C15" s="5">
-        <v>378121.76567523699</v>
+        <v>267829.09867701301</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="4" t="s">
-        <v>522</v>
+        <v>536</v>
       </c>
       <c r="B16" s="5">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C16" s="5">
-        <v>328797.08775496302</v>
+        <v>234922.523998296</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="4" t="s">
-        <v>471</v>
+        <v>506</v>
       </c>
       <c r="B17" s="5">
-        <v>121</v>
+        <v>53</v>
       </c>
       <c r="C17" s="5">
-        <v>267829.09867701301</v>
+        <v>222496.117260133</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="4" t="s">
-        <v>537</v>
+        <v>494</v>
       </c>
       <c r="B18" s="5">
-        <v>110</v>
+        <v>19</v>
       </c>
       <c r="C18" s="5">
-        <v>234922.523998296</v>
+        <v>196536.58951358299</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="4" t="s">
-        <v>507</v>
+        <v>533</v>
       </c>
       <c r="B19" s="5">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="C19" s="5">
-        <v>222496.117260133</v>
+        <v>178494.16368298099</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="4" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="B20" s="5">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C20" s="5">
-        <v>196536.58951358299</v>
+        <v>177934.12513317799</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="4" t="s">
-        <v>534</v>
+        <v>563</v>
       </c>
       <c r="B21" s="5">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="C21" s="5">
-        <v>178494.16368298099</v>
+        <v>116719.289089723</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="4" t="s">
-        <v>486</v>
+        <v>500</v>
       </c>
       <c r="B22" s="5">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="C22" s="5">
-        <v>177934.12513317799</v>
+        <v>107471.78595893399</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="4" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="B23" s="5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C23" s="5">
-        <v>116719.289089723</v>
+        <v>84783.633935990103</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="4" t="s">
-        <v>501</v>
+        <v>435</v>
       </c>
       <c r="B24" s="5">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="C24" s="5">
-        <v>107471.78595893399</v>
+        <v>72357.478697102502</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="4" t="s">
-        <v>555</v>
+        <v>437</v>
       </c>
       <c r="B25" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C25" s="5">
-        <v>84783.633935990103</v>
+        <v>64047.0425836742</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="4" t="s">
-        <v>435</v>
+        <v>548</v>
       </c>
       <c r="B26" s="5">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="C26" s="5">
-        <v>72357.478697102502</v>
+        <v>61755.604470564998</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="4" t="s">
-        <v>438</v>
+        <v>503</v>
       </c>
       <c r="B27" s="5">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C27" s="5">
-        <v>64047.0425836742</v>
+        <v>60625.962987844301</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="4" t="s">
-        <v>549</v>
+        <v>482</v>
       </c>
       <c r="B28" s="5">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C28" s="5">
-        <v>61755.604470564998</v>
+        <v>60356.9805979839</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="4" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="B29" s="5">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C29" s="5">
-        <v>60625.962987844301</v>
+        <v>58107.114904395101</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="4" t="s">
-        <v>483</v>
+        <v>449</v>
       </c>
       <c r="B30" s="5">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C30" s="5">
-        <v>60356.9805979839</v>
+        <v>55494.259078367002</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="4" t="s">
-        <v>510</v>
+        <v>551</v>
       </c>
       <c r="B31" s="5">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C31" s="5">
-        <v>58107.114904395101</v>
+        <v>47572.841375006901</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="4" t="s">
-        <v>450</v>
+        <v>476</v>
       </c>
       <c r="B32" s="5">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C32" s="5">
-        <v>55494.259078367002</v>
+        <v>41189.9392903966</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="4" t="s">
-        <v>552</v>
+        <v>530</v>
       </c>
       <c r="B33" s="5">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C33" s="5">
-        <v>47572.841375006901</v>
+        <v>40102.992754460902</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="4" t="s">
-        <v>477</v>
+        <v>458</v>
       </c>
       <c r="B34" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C34" s="5">
-        <v>41189.9392903966</v>
+        <v>37832.629090891103</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="4" t="s">
-        <v>531</v>
+        <v>491</v>
       </c>
       <c r="B35" s="5">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C35" s="5">
-        <v>40102.992754460902</v>
+        <v>21282.325795997898</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="4" t="s">
-        <v>459</v>
+        <v>515</v>
       </c>
       <c r="B36" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C36" s="5">
-        <v>37832.629090891103</v>
+        <v>20149.859270864599</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="4" t="s">
-        <v>492</v>
+        <v>557</v>
       </c>
       <c r="B37" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C37" s="5">
-        <v>21282.325795997898</v>
+        <v>17769.615798138399</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="4" t="s">
-        <v>516</v>
+        <v>440</v>
       </c>
       <c r="B38" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C38" s="5">
-        <v>20149.859270864599</v>
+        <v>15760.6207512566</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="4" t="s">
-        <v>558</v>
+        <v>455</v>
       </c>
       <c r="B39" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C39" s="5">
-        <v>17769.615798138399</v>
+        <v>15757.0808039003</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="4" t="s">
-        <v>441</v>
+        <v>461</v>
       </c>
       <c r="B40" s="5">
         <v>2</v>
       </c>
       <c r="C40" s="5">
-        <v>15760.6207512566</v>
+        <v>14571.219117643799</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="4" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="B41" s="5">
         <v>1</v>
       </c>
       <c r="C41" s="5">
-        <v>15757.0808039003</v>
+        <v>14181.2280216543</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="4" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B42" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C42" s="5">
-        <v>14571.219117643799</v>
+        <v>14147.6629848049</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="4" t="s">
-        <v>453</v>
+        <v>467</v>
       </c>
       <c r="B43" s="5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C43" s="5">
-        <v>14181.2280216543</v>
+        <v>13787.6032882376</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="4" t="s">
-        <v>465</v>
+        <v>512</v>
       </c>
       <c r="B44" s="5">
         <v>1</v>
       </c>
       <c r="C44" s="5">
-        <v>14147.6629848049</v>
+        <v>13626.8255949173</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="4" t="s">
-        <v>468</v>
+        <v>443</v>
       </c>
       <c r="B45" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C45" s="5">
-        <v>13787.6032882376</v>
+        <v>13198.349536681801</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="4" t="s">
-        <v>513</v>
+        <v>488</v>
       </c>
       <c r="B46" s="5">
         <v>1</v>
       </c>
       <c r="C46" s="5">
-        <v>13626.8255949173</v>
+        <v>12158.61178612</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="4" t="s">
-        <v>444</v>
+        <v>545</v>
       </c>
       <c r="B47" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C47" s="5">
-        <v>13198.349536681801</v>
+        <v>8838.4477251982007</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="4" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="B48" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C48" s="5">
-        <v>12158.61178612</v>
+        <v>6464.4215150128703</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="4" t="s">
-        <v>546</v>
+        <v>560</v>
       </c>
       <c r="B49" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C49" s="5">
-        <v>8838.4477251982007</v>
+        <v>3139.55331832822</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="4" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="B50" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C50" s="5">
-        <v>6464.4215150128703</v>
+        <v>309.85252417888597</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="4" t="s">
-        <v>561</v>
+      <c r="A51" s="3">
+        <v>4</v>
       </c>
       <c r="B51" s="5">
-        <v>1</v>
+        <v>7989</v>
       </c>
       <c r="C51" s="5">
-        <v>3139.55331832822</v>
+        <v>38604677.867322259</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="4" t="s">
-        <v>474</v>
+        <v>633</v>
       </c>
       <c r="B52" s="5">
-        <v>1</v>
+        <v>4941</v>
       </c>
       <c r="C52" s="5">
-        <v>309.85252417888597</v>
+        <v>20266571.003876299</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="3">
-        <v>4</v>
+      <c r="A53" s="4" t="s">
+        <v>651</v>
       </c>
       <c r="B53" s="5">
-        <v>7989</v>
+        <v>646</v>
       </c>
       <c r="C53" s="5">
-        <v>38604677.867322259</v>
+        <v>5350346.3524511596</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="4" t="s">
-        <v>634</v>
+        <v>575</v>
       </c>
       <c r="B54" s="5">
-        <v>4941</v>
+        <v>156</v>
       </c>
       <c r="C54" s="5">
-        <v>20266571.003876299</v>
+        <v>5107810.3592247805</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="4" t="s">
-        <v>652</v>
+        <v>666</v>
       </c>
       <c r="B55" s="5">
-        <v>646</v>
+        <v>413</v>
       </c>
       <c r="C55" s="5">
-        <v>5350346.3524511596</v>
+        <v>1347437.3266046999</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="4" t="s">
-        <v>576</v>
+        <v>618</v>
       </c>
       <c r="B56" s="5">
-        <v>156</v>
+        <v>117</v>
       </c>
       <c r="C56" s="5">
-        <v>5107810.3592247805</v>
+        <v>1089368.7754341599</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="4" t="s">
-        <v>667</v>
+        <v>627</v>
       </c>
       <c r="B57" s="5">
-        <v>413</v>
+        <v>447</v>
       </c>
       <c r="C57" s="5">
-        <v>1347437.3266046999</v>
+        <v>990281.56764982105</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="4" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="B58" s="5">
-        <v>117</v>
+        <v>483</v>
       </c>
       <c r="C58" s="5">
-        <v>1089368.7754341599</v>
+        <v>971316.519073123</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="4" t="s">
-        <v>628</v>
+        <v>581</v>
       </c>
       <c r="B59" s="5">
-        <v>447</v>
+        <v>101</v>
       </c>
       <c r="C59" s="5">
-        <v>990281.56764982105</v>
+        <v>584855.34654713795</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="4" t="s">
-        <v>622</v>
+        <v>636</v>
       </c>
       <c r="B60" s="5">
-        <v>483</v>
+        <v>150</v>
       </c>
       <c r="C60" s="5">
-        <v>971316.519073123</v>
+        <v>526160.17732777901</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="4" t="s">
-        <v>582</v>
+        <v>605</v>
       </c>
       <c r="B61" s="5">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="C61" s="5">
-        <v>584855.34654713795</v>
+        <v>431262.24291815999</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="4" t="s">
-        <v>637</v>
+        <v>590</v>
       </c>
       <c r="B62" s="5">
-        <v>150</v>
+        <v>93</v>
       </c>
       <c r="C62" s="5">
-        <v>526160.17732777901</v>
+        <v>232576.461125253</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="4" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="B63" s="5">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="C63" s="5">
-        <v>431262.24291815999</v>
+        <v>196929.81534213701</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="4" t="s">
-        <v>591</v>
+        <v>624</v>
       </c>
       <c r="B64" s="5">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="C64" s="5">
-        <v>232576.461125253</v>
+        <v>157021.33252469799</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="4" t="s">
-        <v>603</v>
+        <v>572</v>
       </c>
       <c r="B65" s="5">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C65" s="5">
-        <v>196929.81534213701</v>
+        <v>147333.44519511799</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="4" t="s">
-        <v>625</v>
+        <v>675</v>
       </c>
       <c r="B66" s="5">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="C66" s="5">
-        <v>157021.33252469799</v>
+        <v>144038.20063327899</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="4" t="s">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="B67" s="5">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C67" s="5">
-        <v>147333.44519511799</v>
+        <v>132381.59696428999</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="4" t="s">
-        <v>676</v>
+        <v>639</v>
       </c>
       <c r="B68" s="5">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="C68" s="5">
-        <v>144038.20063327899</v>
+        <v>132246.891448468</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="4" t="s">
-        <v>585</v>
+        <v>630</v>
       </c>
       <c r="B69" s="5">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="C69" s="5">
-        <v>132381.59696428999</v>
+        <v>113018.650142071</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="4" t="s">
-        <v>640</v>
+        <v>608</v>
       </c>
       <c r="B70" s="5">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="C70" s="5">
-        <v>132246.891448468</v>
+        <v>82317.651403813201</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="4" t="s">
-        <v>631</v>
+        <v>660</v>
       </c>
       <c r="B71" s="5">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C71" s="5">
-        <v>113018.650142071</v>
+        <v>80340.286299578103</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="4" t="s">
-        <v>504</v>
+        <v>657</v>
       </c>
       <c r="B72" s="5">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C72" s="5">
-        <v>82317.651403813201</v>
+        <v>79282.859856115698</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="4" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="B73" s="5">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="C73" s="5">
-        <v>80340.286299578103</v>
+        <v>68969.6689954701</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="4" t="s">
-        <v>658</v>
+        <v>610</v>
       </c>
       <c r="B74" s="5">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C74" s="5">
-        <v>79282.859856115698</v>
+        <v>65878.536188588201</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="4" t="s">
-        <v>664</v>
+        <v>613</v>
       </c>
       <c r="B75" s="5">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C75" s="5">
-        <v>68969.6689954701</v>
+        <v>52063.0144974496</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="4" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="B76" s="5">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C76" s="5">
-        <v>65878.536188588201</v>
+        <v>45459.003444954003</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="4" t="s">
-        <v>501</v>
+        <v>593</v>
       </c>
       <c r="B77" s="5">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C77" s="5">
-        <v>52063.0144974496</v>
+        <v>43897.097902554699</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="4" t="s">
-        <v>588</v>
+        <v>672</v>
       </c>
       <c r="B78" s="5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C78" s="5">
-        <v>45459.003444954003</v>
+        <v>43469.044830127801</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="4" t="s">
-        <v>594</v>
+        <v>645</v>
       </c>
       <c r="B79" s="5">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C79" s="5">
-        <v>43897.097902554699</v>
+        <v>26384.555010532</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="4" t="s">
-        <v>673</v>
+        <v>615</v>
       </c>
       <c r="B80" s="5">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C80" s="5">
-        <v>43469.044830127801</v>
+        <v>26314.610180997101</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="4" t="s">
-        <v>646</v>
+        <v>654</v>
       </c>
       <c r="B81" s="5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C81" s="5">
-        <v>26384.555010532</v>
+        <v>22221.138833602399</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="4" t="s">
-        <v>616</v>
+        <v>669</v>
       </c>
       <c r="B82" s="5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C82" s="5">
-        <v>26314.610180997101</v>
+        <v>19990.388481015099</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="4" t="s">
-        <v>655</v>
+        <v>578</v>
       </c>
       <c r="B83" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C83" s="5">
-        <v>22221.138833602399</v>
+        <v>8542.8989449459696</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="4" t="s">
-        <v>670</v>
+        <v>599</v>
       </c>
       <c r="B84" s="5">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C84" s="5">
-        <v>19990.388481015099</v>
+        <v>5539.7239921243099</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="4" t="s">
-        <v>579</v>
+        <v>642</v>
       </c>
       <c r="B85" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C85" s="5">
-        <v>8542.8989449459696</v>
+        <v>4989.2792321715797</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="4" t="s">
-        <v>600</v>
+        <v>678</v>
       </c>
       <c r="B86" s="5">
         <v>1</v>
       </c>
       <c r="C86" s="5">
-        <v>5539.7239921243099</v>
+        <v>3907.4142173416099</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="4" t="s">
-        <v>643</v>
+        <v>648</v>
       </c>
       <c r="B87" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C87" s="5">
-        <v>4989.2792321715797</v>
+        <v>3278.7784756557498</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="4" t="s">
-        <v>679</v>
+        <v>596</v>
       </c>
       <c r="B88" s="5">
         <v>1</v>
       </c>
       <c r="C88" s="5">
-        <v>3907.4142173416099</v>
+        <v>875.85205279789602</v>
       </c>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="4" t="s">
-        <v>649</v>
+      <c r="A89" s="3">
+        <v>5</v>
       </c>
       <c r="B89" s="5">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="C89" s="5">
-        <v>3278.7784756557498</v>
+        <v>1481846.78314778</v>
       </c>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" s="4" t="s">
-        <v>597</v>
+      <c r="A90" s="3">
+        <v>7</v>
       </c>
       <c r="B90" s="5">
-        <v>1</v>
+        <v>297</v>
       </c>
       <c r="C90" s="5">
-        <v>875.85205279789602</v>
+        <v>20537090.447127305</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="3">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B91" s="5">
-        <v>81</v>
+        <v>218</v>
       </c>
       <c r="C91" s="5">
-        <v>1481846.78314778</v>
+        <v>4117645.2709667934</v>
       </c>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" s="3">
-        <v>7</v>
+      <c r="A92" s="4" t="s">
+        <v>743</v>
       </c>
       <c r="B92" s="5">
-        <v>297</v>
+        <v>48</v>
       </c>
       <c r="C92" s="5">
-        <v>20537090.447127305</v>
+        <v>1171978.4726064201</v>
       </c>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93" s="3">
-        <v>9</v>
+      <c r="A93" s="4" t="s">
+        <v>728</v>
       </c>
       <c r="B93" s="5">
-        <v>218</v>
+        <v>45</v>
       </c>
       <c r="C93" s="5">
-        <v>4117645.2709667939</v>
+        <v>687865.63106440101</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="4" t="s">
-        <v>744</v>
+        <v>725</v>
       </c>
       <c r="B94" s="5">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C94" s="5">
-        <v>1171978.4726064201</v>
+        <v>615327.64409469999</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="4" t="s">
-        <v>729</v>
+        <v>734</v>
       </c>
       <c r="B95" s="5">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="C95" s="5">
-        <v>687865.63106440101</v>
+        <v>421597.21871129802</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="4" t="s">
-        <v>726</v>
+        <v>746</v>
       </c>
       <c r="B96" s="5">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C96" s="5">
-        <v>615327.64409469999</v>
+        <v>388800.85871762602</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="4" t="s">
-        <v>735</v>
+        <v>740</v>
       </c>
       <c r="B97" s="5">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C97" s="5">
-        <v>421597.21871129802</v>
+        <v>249463.05260566901</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="4" t="s">
-        <v>747</v>
+        <v>737</v>
       </c>
       <c r="B98" s="5">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C98" s="5">
-        <v>388800.85871762602</v>
+        <v>237387.521454264</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="4" t="s">
-        <v>741</v>
+        <v>731</v>
       </c>
       <c r="B99" s="5">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C99" s="5">
-        <v>249463.05260566901</v>
+        <v>169977.38418672199</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="4" t="s">
-        <v>738</v>
+        <v>749</v>
       </c>
       <c r="B100" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C100" s="5">
-        <v>237387.521454264</v>
+        <v>82147.203902562498</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="4" t="s">
-        <v>732</v>
+        <v>719</v>
       </c>
       <c r="B101" s="5">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C101" s="5">
-        <v>169977.38418672199</v>
+        <v>54083.755099043803</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="4" t="s">
-        <v>750</v>
+        <v>722</v>
       </c>
       <c r="B102" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C102" s="5">
-        <v>82147.203902562498</v>
+        <v>39016.528524087596</v>
       </c>
     </row>
     <row r="103" spans="1:3">
-      <c r="A103" s="4" t="s">
-        <v>720</v>
+      <c r="A103" s="3">
+        <v>10</v>
       </c>
       <c r="B103" s="5">
-        <v>7</v>
+        <v>457</v>
       </c>
       <c r="C103" s="5">
-        <v>54083.755099043803</v>
+        <v>11653570.696217353</v>
       </c>
     </row>
     <row r="104" spans="1:3">
-      <c r="A104" s="4" t="s">
-        <v>723</v>
+      <c r="A104" s="3">
+        <v>11</v>
       </c>
       <c r="B104" s="5">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="C104" s="5">
-        <v>39016.528524087596</v>
+        <v>3154741.8975478099</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="3">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B105" s="5">
-        <v>457</v>
+        <v>615</v>
       </c>
       <c r="C105" s="5">
-        <v>11653570.696217353</v>
+        <v>8441316.9640266895</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="3">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B106" s="5">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="C106" s="5">
-        <v>3154741.8975478099</v>
+        <v>7019615.8975223713</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="3">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B107" s="5">
-        <v>615</v>
+        <v>52</v>
       </c>
       <c r="C107" s="5">
-        <v>8441316.9640266895</v>
+        <v>408395.2546697876</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="3">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B108" s="5">
-        <v>53</v>
+        <v>234</v>
       </c>
       <c r="C108" s="5">
-        <v>7019615.8975223713</v>
+        <v>752405.9499853577</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="3">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B109" s="5">
-        <v>52</v>
+        <v>106</v>
       </c>
       <c r="C109" s="5">
-        <v>408395.2546697876</v>
+        <v>327828.2401748363</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="3">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B110" s="5">
-        <v>234</v>
+        <v>631</v>
       </c>
       <c r="C110" s="5">
-        <v>752405.9499853577</v>
+        <v>6373117.8967440743</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="3">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B111" s="5">
-        <v>106</v>
+        <v>1365</v>
       </c>
       <c r="C111" s="5">
-        <v>327828.2401748363</v>
+        <v>15019765.743388671</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="3">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B112" s="5">
-        <v>631</v>
+        <v>15</v>
       </c>
       <c r="C112" s="5">
-        <v>6373117.8967440743</v>
+        <v>578462.22180264071</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="3">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B113" s="5">
-        <v>1365</v>
+        <v>11</v>
       </c>
       <c r="C113" s="5">
-        <v>15019765.743388671</v>
+        <v>2972973.4042729521</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="3">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="B114" s="5">
-        <v>15</v>
+        <v>212</v>
       </c>
       <c r="C114" s="5">
-        <v>578462.22180264071</v>
+        <v>68966644.267775908</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="3">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="B115" s="5">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C115" s="5">
-        <v>2972973.4042729521</v>
+        <v>178172.69768018869</v>
       </c>
     </row>
     <row r="116" spans="1:3">
-      <c r="A116" s="3">
-        <v>50</v>
+      <c r="A116" s="4" t="s">
+        <v>693</v>
       </c>
       <c r="B116" s="5">
-        <v>212</v>
+        <v>15</v>
       </c>
       <c r="C116" s="5">
-        <v>68966644.267775908</v>
+        <v>140747.41044696601</v>
       </c>
     </row>
     <row r="117" spans="1:3">
-      <c r="A117" s="3">
-        <v>53</v>
+      <c r="A117" s="4" t="s">
+        <v>690</v>
       </c>
       <c r="B117" s="5">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="C117" s="5">
-        <v>178172.69768018869</v>
+        <v>37425.287233222698</v>
       </c>
     </row>
     <row r="118" spans="1:3">
-      <c r="A118" s="4" t="s">
-        <v>694</v>
+      <c r="A118" s="3">
+        <v>82</v>
       </c>
       <c r="B118" s="5">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C118" s="5">
-        <v>140747.41044696601</v>
+        <v>524737.36463675299</v>
       </c>
     </row>
     <row r="119" spans="1:3">
-      <c r="A119" s="4" t="s">
-        <v>691</v>
+      <c r="A119" s="3" t="s">
+        <v>755</v>
       </c>
       <c r="B119" s="5">
-        <v>2</v>
+        <v>15534</v>
       </c>
       <c r="C119" s="5">
-        <v>37425.287233222698</v>
+        <v>2264375462.3303781</v>
       </c>
     </row>
     <row r="120" spans="1:3">
-      <c r="A120" s="3">
-        <v>82</v>
-      </c>
-      <c r="B120" s="5">
-        <v>12</v>
-      </c>
-      <c r="C120" s="5">
-        <v>524737.36463675299</v>
-      </c>
+      <c r="B120"/>
+      <c r="C120"/>
     </row>
     <row r="121" spans="1:3">
-      <c r="A121" s="3" t="s">
-        <v>755</v>
-      </c>
-      <c r="B121" s="5">
-        <v>15534</v>
-      </c>
-      <c r="C121" s="5">
-        <v>2264375462.3303781</v>
-      </c>
+      <c r="B121"/>
+      <c r="C121"/>
     </row>
     <row r="122" spans="1:3">
       <c r="B122"/>
@@ -8800,14 +8759,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:F255"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="C253" sqref="C253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15"/>
   <cols>
+    <col min="2" max="2" width="29.3046875" customWidth="1"/>
     <col min="3" max="3" width="16.4609375" customWidth="1"/>
     <col min="4" max="4" width="14.4609375" customWidth="1"/>
     <col min="5" max="5" width="11.3046875" style="1" bestFit="1" customWidth="1"/>
@@ -8834,7 +8795,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" hidden="1">
       <c r="A2">
         <v>0</v>
       </c>
@@ -8851,7 +8812,7 @@
         <v>671583765.24874198</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" hidden="1">
       <c r="A3">
         <v>0</v>
       </c>
@@ -8868,7 +8829,7 @@
         <v>1343167530.4974799</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" hidden="1">
       <c r="A4">
         <v>0</v>
       </c>
@@ -8885,7 +8846,7 @@
         <v>48045744.549015701</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" hidden="1">
       <c r="A5">
         <v>10</v>
       </c>
@@ -8905,7 +8866,7 @@
         <v>25961.784900862502</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" hidden="1">
       <c r="A6">
         <v>10</v>
       </c>
@@ -8925,7 +8886,7 @@
         <v>1572457.7804912201</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" hidden="1">
       <c r="A7">
         <v>10</v>
       </c>
@@ -8945,7 +8906,7 @@
         <v>3001266.08971179</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" hidden="1">
       <c r="A8">
         <v>10</v>
       </c>
@@ -8965,7 +8926,7 @@
         <v>340773.81518992799</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" hidden="1">
       <c r="A9">
         <v>10</v>
       </c>
@@ -8985,7 +8946,7 @@
         <v>501883.64397258899</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" hidden="1">
       <c r="A10">
         <v>10</v>
       </c>
@@ -9005,7 +8966,7 @@
         <v>126588.544357975</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" hidden="1">
       <c r="A11">
         <v>10</v>
       </c>
@@ -9025,7 +8986,7 @@
         <v>2012562.7092255999</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" hidden="1">
       <c r="A12">
         <v>10</v>
       </c>
@@ -9045,7 +9006,7 @@
         <v>261007.00043763599</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" hidden="1">
       <c r="A13">
         <v>10</v>
       </c>
@@ -9065,7 +9026,7 @@
         <v>14333.948719390901</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" hidden="1">
       <c r="A14">
         <v>10</v>
       </c>
@@ -9085,7 +9046,7 @@
         <v>14662.598791447001</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" hidden="1">
       <c r="A15">
         <v>10</v>
       </c>
@@ -9105,7 +9066,7 @@
         <v>14290.528468578699</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" hidden="1">
       <c r="A16">
         <v>10</v>
       </c>
@@ -9125,7 +9086,7 @@
         <v>110683.32214634999</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" hidden="1">
       <c r="A17">
         <v>10</v>
       </c>
@@ -9145,7 +9106,7 @@
         <v>890.178789444995</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" hidden="1">
       <c r="A18">
         <v>10</v>
       </c>
@@ -9165,7 +9126,7 @@
         <v>28333.752198954498</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" hidden="1">
       <c r="A19">
         <v>10</v>
       </c>
@@ -9185,7 +9146,7 @@
         <v>940823.66150152695</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" hidden="1">
       <c r="A20">
         <v>10</v>
       </c>
@@ -9205,7 +9166,7 @@
         <v>690364.10607001896</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" hidden="1">
       <c r="A21">
         <v>10</v>
       </c>
@@ -9225,7 +9186,7 @@
         <v>21589.666821193601</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" hidden="1">
       <c r="A22">
         <v>10</v>
       </c>
@@ -9245,7 +9206,7 @@
         <v>34417.141123798603</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" hidden="1">
       <c r="A23">
         <v>10</v>
       </c>
@@ -9265,7 +9226,7 @@
         <v>3006.4769805027399</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" hidden="1">
       <c r="A24">
         <v>10</v>
       </c>
@@ -9285,7 +9246,7 @@
         <v>5434.0824005018603</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" hidden="1">
       <c r="A25">
         <v>10</v>
       </c>
@@ -9305,7 +9266,7 @@
         <v>84460.788775969602</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" hidden="1">
       <c r="A26">
         <v>10</v>
       </c>
@@ -9325,7 +9286,7 @@
         <v>14423.8481379725</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" hidden="1">
       <c r="A27">
         <v>10</v>
       </c>
@@ -9345,7 +9306,7 @@
         <v>6970.0442884294798</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" hidden="1">
       <c r="A28">
         <v>10</v>
       </c>
@@ -9365,7 +9326,7 @@
         <v>9956.7511677211805</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" hidden="1">
       <c r="A29">
         <v>10</v>
       </c>
@@ -9385,7 +9346,7 @@
         <v>8110.0408680015498</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" hidden="1">
       <c r="A30">
         <v>10</v>
       </c>
@@ -9405,7 +9366,7 @@
         <v>10605.402421016301</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" hidden="1">
       <c r="A31">
         <v>10</v>
       </c>
@@ -9425,7 +9386,7 @@
         <v>35927.231888397902</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" hidden="1">
       <c r="A32">
         <v>10</v>
       </c>
@@ -9445,7 +9406,7 @@
         <v>497.076258494993</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" hidden="1">
       <c r="A33">
         <v>10</v>
       </c>
@@ -9465,7 +9426,7 @@
         <v>64890.6579769073</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" hidden="1">
       <c r="A34">
         <v>10</v>
       </c>
@@ -9485,7 +9446,7 @@
         <v>10046.7656922108</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" hidden="1">
       <c r="A35">
         <v>10</v>
       </c>
@@ -9505,7 +9466,7 @@
         <v>11253.0050405313</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" hidden="1">
       <c r="A36">
         <v>10</v>
       </c>
@@ -9525,7 +9486,7 @@
         <v>4877.5611062519201</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" hidden="1">
       <c r="A37">
         <v>10</v>
       </c>
@@ -9545,7 +9506,7 @@
         <v>24478.2768859977</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" hidden="1">
       <c r="A38">
         <v>10</v>
       </c>
@@ -9565,7 +9526,7 @@
         <v>3054.0197659969199</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" hidden="1">
       <c r="A39">
         <v>10</v>
       </c>
@@ -9585,7 +9546,7 @@
         <v>19362.417094824701</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" hidden="1">
       <c r="A40">
         <v>10</v>
       </c>
@@ -9605,7 +9566,7 @@
         <v>7189.5905504877701</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" hidden="1">
       <c r="A41">
         <v>10</v>
       </c>
@@ -9625,7 +9586,7 @@
         <v>65040.692161055202</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" hidden="1">
       <c r="A42">
         <v>10</v>
       </c>
@@ -9645,7 +9606,7 @@
         <v>8288.55046572637</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" hidden="1">
       <c r="A43">
         <v>10</v>
       </c>
@@ -9665,7 +9626,7 @@
         <v>33885.053342222302</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" hidden="1">
       <c r="A44">
         <v>10</v>
       </c>
@@ -9685,7 +9646,7 @@
         <v>14955.245487927999</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" hidden="1">
       <c r="A45">
         <v>10</v>
       </c>
@@ -9705,7 +9666,7 @@
         <v>1003.9404330041</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" hidden="1">
       <c r="A46">
         <v>10</v>
       </c>
@@ -9725,7 +9686,7 @@
         <v>4111.8123234949298</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" hidden="1">
       <c r="A47">
         <v>10</v>
       </c>
@@ -9745,7 +9706,7 @@
         <v>38002.015868022398</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" hidden="1">
       <c r="A48">
         <v>10</v>
       </c>
@@ -9765,7 +9726,7 @@
         <v>19857.790215495101</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" hidden="1">
       <c r="A49">
         <v>10</v>
       </c>
@@ -9785,7 +9746,7 @@
         <v>3969.03183949811</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" hidden="1">
       <c r="A50">
         <v>10</v>
       </c>
@@ -9805,7 +9766,7 @@
         <v>960.81339484710304</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" hidden="1">
       <c r="A51">
         <v>10</v>
       </c>
@@ -9825,7 +9786,7 @@
         <v>6671.2854329907204</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" hidden="1">
       <c r="A52">
         <v>10</v>
       </c>
@@ -9845,7 +9806,7 @@
         <v>14379.1146847901</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" hidden="1">
       <c r="A53">
         <v>10</v>
       </c>
@@ -9865,7 +9826,7 @@
         <v>143786.75214534599</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" hidden="1">
       <c r="A54">
         <v>10</v>
       </c>
@@ -9885,7 +9846,7 @@
         <v>141.53439897018799</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" hidden="1">
       <c r="A55">
         <v>10</v>
       </c>
@@ -9905,7 +9866,7 @@
         <v>928665.305628845</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" hidden="1">
       <c r="A56">
         <v>10</v>
       </c>
@@ -9925,7 +9886,7 @@
         <v>332417.44817658898</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" hidden="1">
       <c r="A57">
         <v>11</v>
       </c>
@@ -9945,7 +9906,7 @@
         <v>3154741.8975478099</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" hidden="1">
       <c r="A58">
         <v>13</v>
       </c>
@@ -9965,7 +9926,7 @@
         <v>2402.1163404991498</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" hidden="1">
       <c r="A59">
         <v>13</v>
       </c>
@@ -9985,7 +9946,7 @@
         <v>7306.9325440351304</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" hidden="1">
       <c r="A60">
         <v>13</v>
       </c>
@@ -10005,7 +9966,7 @@
         <v>29016.883316500102</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" hidden="1">
       <c r="A61">
         <v>13</v>
       </c>
@@ -10025,7 +9986,7 @@
         <v>1332.58321225637</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" hidden="1">
       <c r="A62">
         <v>13</v>
       </c>
@@ -10045,7 +10006,7 @@
         <v>3586.76836674387</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" hidden="1">
       <c r="A63">
         <v>13</v>
       </c>
@@ -10065,7 +10026,7 @@
         <v>2494.8888784010501</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" hidden="1">
       <c r="A64">
         <v>13</v>
       </c>
@@ -10085,7 +10046,7 @@
         <v>177783.02070675499</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" hidden="1">
       <c r="A65">
         <v>13</v>
       </c>
@@ -10105,7 +10066,7 @@
         <v>9783.8115406923407</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" hidden="1">
       <c r="A66">
         <v>13</v>
       </c>
@@ -10125,7 +10086,7 @@
         <v>5662218.6913560601</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" hidden="1">
       <c r="A67">
         <v>13</v>
       </c>
@@ -10145,7 +10106,7 @@
         <v>43485.623897392703</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" hidden="1">
       <c r="A68">
         <v>13</v>
       </c>
@@ -10165,7 +10126,7 @@
         <v>5980.3605126415896</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" hidden="1">
       <c r="A69">
         <v>13</v>
       </c>
@@ -10185,7 +10146,7 @@
         <v>594.43568951549105</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" hidden="1">
       <c r="A70">
         <v>13</v>
       </c>
@@ -10205,7 +10166,7 @@
         <v>4457.1503082036097</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" hidden="1">
       <c r="A71">
         <v>13</v>
       </c>
@@ -10225,7 +10186,7 @@
         <v>8158.5629345670604</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" hidden="1">
       <c r="A72">
         <v>13</v>
       </c>
@@ -10245,7 +10206,7 @@
         <v>88.726714603362893</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" hidden="1">
       <c r="A73">
         <v>13</v>
       </c>
@@ -10265,7 +10226,7 @@
         <v>99962.524618911004</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" hidden="1">
       <c r="A74">
         <v>13</v>
       </c>
@@ -10285,7 +10246,7 @@
         <v>4839.6607955692798</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" hidden="1">
       <c r="A75">
         <v>13</v>
       </c>
@@ -10305,7 +10266,7 @@
         <v>32200.4631690241</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" hidden="1">
       <c r="A76">
         <v>13</v>
       </c>
@@ -10325,7 +10286,7 @@
         <v>59865.502888356597</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" hidden="1">
       <c r="A77">
         <v>13</v>
       </c>
@@ -10345,7 +10306,7 @@
         <v>3538.9946442237401</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" hidden="1">
       <c r="A78">
         <v>13</v>
       </c>
@@ -10365,7 +10326,7 @@
         <v>4774.8205651416902</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" hidden="1">
       <c r="A79">
         <v>13</v>
       </c>
@@ -10385,7 +10346,7 @@
         <v>260321.51915549001</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" hidden="1">
       <c r="A80">
         <v>13</v>
       </c>
@@ -10405,7 +10366,7 @@
         <v>54531.005322643003</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" hidden="1">
       <c r="A81">
         <v>13</v>
       </c>
@@ -10425,7 +10386,7 @@
         <v>2200.42004360786</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" hidden="1">
       <c r="A82">
         <v>13</v>
       </c>
@@ -10445,7 +10406,7 @@
         <v>695690.19072506996</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" hidden="1">
       <c r="A83">
         <v>13</v>
       </c>
@@ -10465,7 +10426,7 @@
         <v>79659.720181989498</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" hidden="1">
       <c r="A84">
         <v>13</v>
       </c>
@@ -10485,7 +10446,7 @@
         <v>45282.423880715498</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" hidden="1">
       <c r="A85">
         <v>13</v>
       </c>
@@ -10505,7 +10466,7 @@
         <v>361.23543700053898</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" hidden="1">
       <c r="A86">
         <v>13</v>
       </c>
@@ -10525,7 +10486,7 @@
         <v>928.64972000409296</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" hidden="1">
       <c r="A87">
         <v>13</v>
       </c>
@@ -10545,7 +10506,7 @@
         <v>142467.901402182</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" hidden="1">
       <c r="A88">
         <v>13</v>
       </c>
@@ -10565,7 +10526,7 @@
         <v>47664.352853381002</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" hidden="1">
       <c r="A89">
         <v>13</v>
       </c>
@@ -10585,7 +10546,7 @@
         <v>10268.445721739001</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" hidden="1">
       <c r="A90">
         <v>13</v>
       </c>
@@ -10605,7 +10566,7 @@
         <v>40810.125292030199</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" hidden="1">
       <c r="A91">
         <v>13</v>
       </c>
@@ -10625,7 +10586,7 @@
         <v>29008.218383144598</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" hidden="1">
       <c r="A92">
         <v>13</v>
       </c>
@@ -10645,7 +10606,7 @@
         <v>447231.23115954601</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" hidden="1">
       <c r="A93">
         <v>13</v>
       </c>
@@ -10665,7 +10626,7 @@
         <v>146964.98229785499</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" hidden="1">
       <c r="A94">
         <v>13</v>
       </c>
@@ -10685,7 +10646,7 @@
         <v>10046.4360636454</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" hidden="1">
       <c r="A95">
         <v>13</v>
       </c>
@@ -10705,7 +10666,7 @@
         <v>94400.732658024703</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" hidden="1">
       <c r="A96">
         <v>13</v>
       </c>
@@ -10725,7 +10686,7 @@
         <v>4298.9594949499697</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" hidden="1">
       <c r="A97">
         <v>13</v>
       </c>
@@ -10745,7 +10706,7 @@
         <v>152033.69512567599</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" hidden="1">
       <c r="A98">
         <v>13</v>
       </c>
@@ -10765,7 +10726,7 @@
         <v>4485.9791753949403</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" hidden="1">
       <c r="A99">
         <v>13</v>
       </c>
@@ -10785,7 +10746,7 @@
         <v>8788.2169325061004</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" hidden="1">
       <c r="A100">
         <v>14</v>
       </c>
@@ -10805,7 +10766,7 @@
         <v>7851.2761125322704</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" hidden="1">
       <c r="A101">
         <v>14</v>
       </c>
@@ -10825,7 +10786,7 @@
         <v>5266906.0734998696</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" hidden="1">
       <c r="A102">
         <v>14</v>
       </c>
@@ -10845,7 +10806,7 @@
         <v>1744858.5479099699</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" hidden="1">
       <c r="A103">
         <v>15</v>
       </c>
@@ -10865,7 +10826,7 @@
         <v>249435.53545051999</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" hidden="1">
       <c r="A104">
         <v>15</v>
       </c>
@@ -10885,7 +10846,7 @@
         <v>124712.52506158401</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" hidden="1">
       <c r="A105">
         <v>15</v>
       </c>
@@ -10905,7 +10866,7 @@
         <v>575.50439132799102</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" hidden="1">
       <c r="A106">
         <v>15</v>
       </c>
@@ -10925,7 +10886,7 @@
         <v>3339.1054864714702</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" hidden="1">
       <c r="A107">
         <v>15</v>
       </c>
@@ -10945,7 +10906,7 @@
         <v>2736.0293669975999</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" hidden="1">
       <c r="A108">
         <v>15</v>
       </c>
@@ -10965,7 +10926,7 @@
         <v>27596.554912886499</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" hidden="1">
       <c r="A109">
         <v>16</v>
       </c>
@@ -10985,7 +10946,7 @@
         <v>211962.51543372701</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" hidden="1">
       <c r="A110">
         <v>16</v>
       </c>
@@ -11005,7 +10966,7 @@
         <v>367958.59678123501</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" hidden="1">
       <c r="A111">
         <v>16</v>
       </c>
@@ -11025,7 +10986,7 @@
         <v>160656.93440086499</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" hidden="1">
       <c r="A112">
         <v>16</v>
       </c>
@@ -11045,7 +11006,7 @@
         <v>11827.903369530701</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" hidden="1">
       <c r="A113">
         <v>17</v>
       </c>
@@ -11065,7 +11026,7 @@
         <v>87248.362634926802</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" hidden="1">
       <c r="A114">
         <v>17</v>
       </c>
@@ -11085,7 +11046,7 @@
         <v>41311.037818120501</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" hidden="1">
       <c r="A115">
         <v>17</v>
       </c>
@@ -11105,7 +11066,7 @@
         <v>197525.49631907599</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" hidden="1">
       <c r="A116">
         <v>17</v>
       </c>
@@ -11125,7 +11086,7 @@
         <v>1743.3434027130299</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" hidden="1">
       <c r="A117">
         <v>18</v>
       </c>
@@ -11145,7 +11106,7 @@
         <v>1529403.7483149101</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:6" hidden="1">
       <c r="A118">
         <v>18</v>
       </c>
@@ -11165,7 +11126,7 @@
         <v>96725.825997875101</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" hidden="1">
       <c r="A119">
         <v>18</v>
       </c>
@@ -11185,7 +11146,7 @@
         <v>3021.1366735351999</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:6" hidden="1">
       <c r="A120">
         <v>18</v>
       </c>
@@ -11205,7 +11166,7 @@
         <v>394229.77872894303</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" hidden="1">
       <c r="A121">
         <v>18</v>
       </c>
@@ -11225,7 +11186,7 @@
         <v>890293.699477699</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" hidden="1">
       <c r="A122">
         <v>18</v>
       </c>
@@ -11245,7 +11206,7 @@
         <v>71103.889747338893</v>
       </c>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:6" hidden="1">
       <c r="A123">
         <v>18</v>
       </c>
@@ -11265,7 +11226,7 @@
         <v>1391.42229756339</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" hidden="1">
       <c r="A124">
         <v>18</v>
       </c>
@@ -11285,7 +11246,7 @@
         <v>2760.48323065572</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" hidden="1">
       <c r="A125">
         <v>18</v>
       </c>
@@ -11305,7 +11266,7 @@
         <v>6540.4804218838399</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" hidden="1">
       <c r="A126">
         <v>18</v>
       </c>
@@ -11325,7 +11286,7 @@
         <v>2363036.4471938699</v>
       </c>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:6" hidden="1">
       <c r="A127">
         <v>18</v>
       </c>
@@ -11345,7 +11306,7 @@
         <v>245617.07156637701</v>
       </c>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:6" hidden="1">
       <c r="A128">
         <v>18</v>
       </c>
@@ -11365,7 +11326,7 @@
         <v>38173.454480521403</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:6" hidden="1">
       <c r="A129">
         <v>18</v>
       </c>
@@ -11385,7 +11346,7 @@
         <v>78442.838868413499</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" hidden="1">
       <c r="A130">
         <v>18</v>
       </c>
@@ -11405,7 +11366,7 @@
         <v>172506.68665602701</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" hidden="1">
       <c r="A131">
         <v>18</v>
       </c>
@@ -11425,7 +11386,7 @@
         <v>102632.753119228</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:6" hidden="1">
       <c r="A132">
         <v>18</v>
       </c>
@@ -11445,7 +11406,7 @@
         <v>46664.3794689809</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:6" hidden="1">
       <c r="A133">
         <v>18</v>
       </c>
@@ -11465,7 +11426,7 @@
         <v>36138.0034870405</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" hidden="1">
       <c r="A134">
         <v>18</v>
       </c>
@@ -11485,7 +11446,7 @@
         <v>116847.216746272</v>
       </c>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:6" hidden="1">
       <c r="A135">
         <v>18</v>
       </c>
@@ -11505,7 +11466,7 @@
         <v>72844.888350210604</v>
       </c>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:6" hidden="1">
       <c r="A136">
         <v>18</v>
       </c>
@@ -11525,7 +11486,7 @@
         <v>104743.69191672999</v>
       </c>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:6" hidden="1">
       <c r="A137">
         <v>19</v>
       </c>
@@ -11545,7 +11506,7 @@
         <v>13728.258577766101</v>
       </c>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:6" hidden="1">
       <c r="A138">
         <v>19</v>
       </c>
@@ -11565,7 +11526,7 @@
         <v>8122.3311523505099</v>
       </c>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" spans="1:6" hidden="1">
       <c r="A139">
         <v>19</v>
       </c>
@@ -11585,7 +11546,7 @@
         <v>11705248.720492</v>
       </c>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:6" hidden="1">
       <c r="A140">
         <v>19</v>
       </c>
@@ -11605,7 +11566,7 @@
         <v>48439.002034894002</v>
       </c>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:6" hidden="1">
       <c r="A141">
         <v>19</v>
       </c>
@@ -11625,7 +11586,7 @@
         <v>72238.782695314396</v>
       </c>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" spans="1:6" hidden="1">
       <c r="A142">
         <v>19</v>
       </c>
@@ -11645,7 +11606,7 @@
         <v>1644087.5528386901</v>
       </c>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" spans="1:6" hidden="1">
       <c r="A143">
         <v>19</v>
       </c>
@@ -11665,7 +11626,7 @@
         <v>174628.51579657299</v>
       </c>
     </row>
-    <row r="144" spans="1:6">
+    <row r="144" spans="1:6" hidden="1">
       <c r="A144">
         <v>19</v>
       </c>
@@ -11685,7 +11646,7 @@
         <v>8169.8396044016099</v>
       </c>
     </row>
-    <row r="145" spans="1:6">
+    <row r="145" spans="1:6" hidden="1">
       <c r="A145">
         <v>19</v>
       </c>
@@ -11705,7 +11666,7 @@
         <v>1043691.10502671</v>
       </c>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" spans="1:6" hidden="1">
       <c r="A146">
         <v>19</v>
       </c>
@@ -11725,7 +11686,7 @@
         <v>301411.63516996999</v>
       </c>
     </row>
-    <row r="147" spans="1:6">
+    <row r="147" spans="1:6" hidden="1">
       <c r="A147">
         <v>29</v>
       </c>
@@ -11745,7 +11706,7 @@
         <v>551473.71183629194</v>
       </c>
     </row>
-    <row r="148" spans="1:6">
+    <row r="148" spans="1:6" hidden="1">
       <c r="A148">
         <v>29</v>
       </c>
@@ -11765,7 +11726,7 @@
         <v>26988.5099663488</v>
       </c>
     </row>
-    <row r="149" spans="1:6">
+    <row r="149" spans="1:6" hidden="1">
       <c r="A149">
         <v>3</v>
       </c>
@@ -11785,7 +11746,7 @@
         <v>72357.478697102502</v>
       </c>
     </row>
-    <row r="150" spans="1:6">
+    <row r="150" spans="1:6" hidden="1">
       <c r="A150">
         <v>3</v>
       </c>
@@ -11805,7 +11766,7 @@
         <v>64047.0425836742</v>
       </c>
     </row>
-    <row r="151" spans="1:6">
+    <row r="151" spans="1:6" hidden="1">
       <c r="A151">
         <v>3</v>
       </c>
@@ -11825,7 +11786,7 @@
         <v>15760.6207512566</v>
       </c>
     </row>
-    <row r="152" spans="1:6">
+    <row r="152" spans="1:6" hidden="1">
       <c r="A152">
         <v>3</v>
       </c>
@@ -11845,7 +11806,7 @@
         <v>13198.349536681801</v>
       </c>
     </row>
-    <row r="153" spans="1:6">
+    <row r="153" spans="1:6" hidden="1">
       <c r="A153">
         <v>3</v>
       </c>
@@ -11865,7 +11826,7 @@
         <v>555449.25452804496</v>
       </c>
     </row>
-    <row r="154" spans="1:6">
+    <row r="154" spans="1:6" hidden="1">
       <c r="A154">
         <v>3</v>
       </c>
@@ -11885,7 +11846,7 @@
         <v>55494.259078367002</v>
       </c>
     </row>
-    <row r="155" spans="1:6">
+    <row r="155" spans="1:6" hidden="1">
       <c r="A155">
         <v>3</v>
       </c>
@@ -11905,7 +11866,7 @@
         <v>14181.2280216543</v>
       </c>
     </row>
-    <row r="156" spans="1:6">
+    <row r="156" spans="1:6" hidden="1">
       <c r="A156">
         <v>3</v>
       </c>
@@ -11925,7 +11886,7 @@
         <v>15757.0808039003</v>
       </c>
     </row>
-    <row r="157" spans="1:6">
+    <row r="157" spans="1:6" hidden="1">
       <c r="A157">
         <v>3</v>
       </c>
@@ -11945,7 +11906,7 @@
         <v>37832.629090891103</v>
       </c>
     </row>
-    <row r="158" spans="1:6">
+    <row r="158" spans="1:6" hidden="1">
       <c r="A158">
         <v>3</v>
       </c>
@@ -11965,7 +11926,7 @@
         <v>14571.219117643799</v>
       </c>
     </row>
-    <row r="159" spans="1:6">
+    <row r="159" spans="1:6" hidden="1">
       <c r="A159">
         <v>3</v>
       </c>
@@ -11985,7 +11946,7 @@
         <v>14147.6629848049</v>
       </c>
     </row>
-    <row r="160" spans="1:6">
+    <row r="160" spans="1:6" hidden="1">
       <c r="A160">
         <v>3</v>
       </c>
@@ -12005,7 +11966,7 @@
         <v>13787.6032882376</v>
       </c>
     </row>
-    <row r="161" spans="1:6">
+    <row r="161" spans="1:6" hidden="1">
       <c r="A161">
         <v>3</v>
       </c>
@@ -12025,7 +11986,7 @@
         <v>267829.09867701301</v>
       </c>
     </row>
-    <row r="162" spans="1:6">
+    <row r="162" spans="1:6" hidden="1">
       <c r="A162">
         <v>3</v>
       </c>
@@ -12045,7 +12006,7 @@
         <v>309.85252417888597</v>
       </c>
     </row>
-    <row r="163" spans="1:6">
+    <row r="163" spans="1:6" hidden="1">
       <c r="A163">
         <v>3</v>
       </c>
@@ -12065,7 +12026,7 @@
         <v>41189.9392903966</v>
       </c>
     </row>
-    <row r="164" spans="1:6">
+    <row r="164" spans="1:6" hidden="1">
       <c r="A164">
         <v>3</v>
       </c>
@@ -12085,7 +12046,7 @@
         <v>6464.4215150128703</v>
       </c>
     </row>
-    <row r="165" spans="1:6">
+    <row r="165" spans="1:6" hidden="1">
       <c r="A165">
         <v>3</v>
       </c>
@@ -12105,7 +12066,7 @@
         <v>60356.9805979839</v>
       </c>
     </row>
-    <row r="166" spans="1:6">
+    <row r="166" spans="1:6" hidden="1">
       <c r="A166">
         <v>3</v>
       </c>
@@ -12125,7 +12086,7 @@
         <v>177934.12513317799</v>
       </c>
     </row>
-    <row r="167" spans="1:6">
+    <row r="167" spans="1:6" hidden="1">
       <c r="A167">
         <v>3</v>
       </c>
@@ -12145,7 +12106,7 @@
         <v>12158.61178612</v>
       </c>
     </row>
-    <row r="168" spans="1:6">
+    <row r="168" spans="1:6" hidden="1">
       <c r="A168">
         <v>3</v>
       </c>
@@ -12165,7 +12126,7 @@
         <v>21282.325795997898</v>
       </c>
     </row>
-    <row r="169" spans="1:6">
+    <row r="169" spans="1:6" hidden="1">
       <c r="A169">
         <v>3</v>
       </c>
@@ -12185,7 +12146,7 @@
         <v>196536.58951358299</v>
       </c>
     </row>
-    <row r="170" spans="1:6">
+    <row r="170" spans="1:6" hidden="1">
       <c r="A170">
         <v>3</v>
       </c>
@@ -12205,7 +12166,7 @@
         <v>408038.24913036497</v>
       </c>
     </row>
-    <row r="171" spans="1:6">
+    <row r="171" spans="1:6" hidden="1">
       <c r="A171">
         <v>3</v>
       </c>
@@ -12225,7 +12186,7 @@
         <v>107471.78595893399</v>
       </c>
     </row>
-    <row r="172" spans="1:6">
+    <row r="172" spans="1:6" hidden="1">
       <c r="A172">
         <v>3</v>
       </c>
@@ -12245,7 +12206,7 @@
         <v>60625.962987844301</v>
       </c>
     </row>
-    <row r="173" spans="1:6">
+    <row r="173" spans="1:6" hidden="1">
       <c r="A173">
         <v>3</v>
       </c>
@@ -12265,7 +12226,7 @@
         <v>222496.117260133</v>
       </c>
     </row>
-    <row r="174" spans="1:6">
+    <row r="174" spans="1:6" hidden="1">
       <c r="A174">
         <v>3</v>
       </c>
@@ -12285,7 +12246,7 @@
         <v>58107.114904395101</v>
       </c>
     </row>
-    <row r="175" spans="1:6">
+    <row r="175" spans="1:6" hidden="1">
       <c r="A175">
         <v>3</v>
       </c>
@@ -12305,7 +12266,7 @@
         <v>13626.8255949173</v>
       </c>
     </row>
-    <row r="176" spans="1:6">
+    <row r="176" spans="1:6" hidden="1">
       <c r="A176">
         <v>3</v>
       </c>
@@ -12325,7 +12286,7 @@
         <v>20149.859270864599</v>
       </c>
     </row>
-    <row r="177" spans="1:6">
+    <row r="177" spans="1:6" hidden="1">
       <c r="A177">
         <v>3</v>
       </c>
@@ -12345,7 +12306,7 @@
         <v>378121.76567523699</v>
       </c>
     </row>
-    <row r="178" spans="1:6">
+    <row r="178" spans="1:6" hidden="1">
       <c r="A178">
         <v>3</v>
       </c>
@@ -12365,7 +12326,7 @@
         <v>328797.08775496302</v>
       </c>
     </row>
-    <row r="179" spans="1:6">
+    <row r="179" spans="1:6" hidden="1">
       <c r="A179">
         <v>3</v>
       </c>
@@ -12385,7 +12346,7 @@
         <v>1636164.1734957099</v>
       </c>
     </row>
-    <row r="180" spans="1:6">
+    <row r="180" spans="1:6" hidden="1">
       <c r="A180">
         <v>3</v>
       </c>
@@ -12405,7 +12366,7 @@
         <v>3216470.5767091499</v>
       </c>
     </row>
-    <row r="181" spans="1:6">
+    <row r="181" spans="1:6" hidden="1">
       <c r="A181">
         <v>3</v>
       </c>
@@ -12425,7 +12386,7 @@
         <v>40102.992754460902</v>
       </c>
     </row>
-    <row r="182" spans="1:6">
+    <row r="182" spans="1:6" hidden="1">
       <c r="A182">
         <v>3</v>
       </c>
@@ -12445,7 +12406,7 @@
         <v>178494.16368298099</v>
       </c>
     </row>
-    <row r="183" spans="1:6">
+    <row r="183" spans="1:6" hidden="1">
       <c r="A183">
         <v>3</v>
       </c>
@@ -12465,7 +12426,7 @@
         <v>234922.523998296</v>
       </c>
     </row>
-    <row r="184" spans="1:6">
+    <row r="184" spans="1:6" hidden="1">
       <c r="A184">
         <v>3</v>
       </c>
@@ -12485,7 +12446,7 @@
         <v>685972.34680790699</v>
       </c>
     </row>
-    <row r="185" spans="1:6">
+    <row r="185" spans="1:6" hidden="1">
       <c r="A185">
         <v>3</v>
       </c>
@@ -12505,7 +12466,7 @@
         <v>864626.26511586702</v>
       </c>
     </row>
-    <row r="186" spans="1:6">
+    <row r="186" spans="1:6" hidden="1">
       <c r="A186">
         <v>3</v>
       </c>
@@ -12525,7 +12486,7 @@
         <v>8838.4477251982007</v>
       </c>
     </row>
-    <row r="187" spans="1:6">
+    <row r="187" spans="1:6" hidden="1">
       <c r="A187">
         <v>3</v>
       </c>
@@ -12545,7 +12506,7 @@
         <v>61755.604470564998</v>
       </c>
     </row>
-    <row r="188" spans="1:6">
+    <row r="188" spans="1:6" hidden="1">
       <c r="A188">
         <v>3</v>
       </c>
@@ -12565,7 +12526,7 @@
         <v>47572.841375006901</v>
       </c>
     </row>
-    <row r="189" spans="1:6">
+    <row r="189" spans="1:6" hidden="1">
       <c r="A189">
         <v>3</v>
       </c>
@@ -12585,7 +12546,7 @@
         <v>84783.633935990103</v>
       </c>
     </row>
-    <row r="190" spans="1:6">
+    <row r="190" spans="1:6" hidden="1">
       <c r="A190">
         <v>3</v>
       </c>
@@ -12605,7 +12566,7 @@
         <v>17769.615798138399</v>
       </c>
     </row>
-    <row r="191" spans="1:6">
+    <row r="191" spans="1:6" hidden="1">
       <c r="A191">
         <v>3</v>
       </c>
@@ -12625,7 +12586,7 @@
         <v>3139.55331832822</v>
       </c>
     </row>
-    <row r="192" spans="1:6">
+    <row r="192" spans="1:6" hidden="1">
       <c r="A192">
         <v>3</v>
       </c>
@@ -12645,7 +12606,7 @@
         <v>116719.289089723</v>
       </c>
     </row>
-    <row r="193" spans="1:6">
+    <row r="193" spans="1:6" hidden="1">
       <c r="A193">
         <v>34</v>
       </c>
@@ -12665,7 +12626,7 @@
         <v>2737137.14946295</v>
       </c>
     </row>
-    <row r="194" spans="1:6">
+    <row r="194" spans="1:6" hidden="1">
       <c r="A194">
         <v>34</v>
       </c>
@@ -12685,7 +12646,7 @@
         <v>235836.25481000199</v>
       </c>
     </row>
-    <row r="195" spans="1:6">
+    <row r="195" spans="1:6" hidden="1">
       <c r="A195">
         <v>4</v>
       </c>
@@ -12705,7 +12666,7 @@
         <v>147333.44519511799</v>
       </c>
     </row>
-    <row r="196" spans="1:6">
+    <row r="196" spans="1:6" hidden="1">
       <c r="A196">
         <v>4</v>
       </c>
@@ -12725,7 +12686,7 @@
         <v>5107810.3592247805</v>
       </c>
     </row>
-    <row r="197" spans="1:6">
+    <row r="197" spans="1:6" hidden="1">
       <c r="A197">
         <v>4</v>
       </c>
@@ -12745,7 +12706,7 @@
         <v>8542.8989449459696</v>
       </c>
     </row>
-    <row r="198" spans="1:6">
+    <row r="198" spans="1:6" hidden="1">
       <c r="A198">
         <v>4</v>
       </c>
@@ -12765,7 +12726,7 @@
         <v>584855.34654713795</v>
       </c>
     </row>
-    <row r="199" spans="1:6">
+    <row r="199" spans="1:6" hidden="1">
       <c r="A199">
         <v>4</v>
       </c>
@@ -12785,7 +12746,7 @@
         <v>132381.59696428999</v>
       </c>
     </row>
-    <row r="200" spans="1:6">
+    <row r="200" spans="1:6" hidden="1">
       <c r="A200">
         <v>4</v>
       </c>
@@ -12805,7 +12766,7 @@
         <v>45459.003444954003</v>
       </c>
     </row>
-    <row r="201" spans="1:6">
+    <row r="201" spans="1:6" hidden="1">
       <c r="A201">
         <v>4</v>
       </c>
@@ -12825,7 +12786,7 @@
         <v>232576.461125253</v>
       </c>
     </row>
-    <row r="202" spans="1:6">
+    <row r="202" spans="1:6" hidden="1">
       <c r="A202">
         <v>4</v>
       </c>
@@ -12845,7 +12806,7 @@
         <v>43897.097902554699</v>
       </c>
     </row>
-    <row r="203" spans="1:6">
+    <row r="203" spans="1:6" hidden="1">
       <c r="A203">
         <v>4</v>
       </c>
@@ -12865,7 +12826,7 @@
         <v>875.85205279789602</v>
       </c>
     </row>
-    <row r="204" spans="1:6">
+    <row r="204" spans="1:6" hidden="1">
       <c r="A204">
         <v>4</v>
       </c>
@@ -12885,7 +12846,7 @@
         <v>5539.7239921243099</v>
       </c>
     </row>
-    <row r="205" spans="1:6">
+    <row r="205" spans="1:6" hidden="1">
       <c r="A205">
         <v>4</v>
       </c>
@@ -12905,7 +12866,7 @@
         <v>196929.81534213701</v>
       </c>
     </row>
-    <row r="206" spans="1:6">
+    <row r="206" spans="1:6" hidden="1">
       <c r="A206">
         <v>4</v>
       </c>
@@ -12925,7 +12886,7 @@
         <v>431262.24291815999</v>
       </c>
     </row>
-    <row r="207" spans="1:6">
+    <row r="207" spans="1:6" hidden="1">
       <c r="A207">
         <v>4</v>
       </c>
@@ -12945,7 +12906,7 @@
         <v>82317.651403813201</v>
       </c>
     </row>
-    <row r="208" spans="1:6">
+    <row r="208" spans="1:6" hidden="1">
       <c r="A208">
         <v>4</v>
       </c>
@@ -12965,7 +12926,7 @@
         <v>65878.536188588201</v>
       </c>
     </row>
-    <row r="209" spans="1:6">
+    <row r="209" spans="1:6" hidden="1">
       <c r="A209">
         <v>4</v>
       </c>
@@ -12985,7 +12946,7 @@
         <v>52063.0144974496</v>
       </c>
     </row>
-    <row r="210" spans="1:6">
+    <row r="210" spans="1:6" hidden="1">
       <c r="A210">
         <v>4</v>
       </c>
@@ -13005,7 +12966,7 @@
         <v>26314.610180997101</v>
       </c>
     </row>
-    <row r="211" spans="1:6">
+    <row r="211" spans="1:6" hidden="1">
       <c r="A211">
         <v>4</v>
       </c>
@@ -13025,7 +12986,7 @@
         <v>1089368.7754341599</v>
       </c>
     </row>
-    <row r="212" spans="1:6">
+    <row r="212" spans="1:6" hidden="1">
       <c r="A212">
         <v>4</v>
       </c>
@@ -13045,7 +13006,7 @@
         <v>971316.519073123</v>
       </c>
     </row>
-    <row r="213" spans="1:6">
+    <row r="213" spans="1:6" hidden="1">
       <c r="A213">
         <v>4</v>
       </c>
@@ -13065,7 +13026,7 @@
         <v>157021.33252469799</v>
       </c>
     </row>
-    <row r="214" spans="1:6">
+    <row r="214" spans="1:6" hidden="1">
       <c r="A214">
         <v>4</v>
       </c>
@@ -13085,7 +13046,7 @@
         <v>990281.56764982105</v>
       </c>
     </row>
-    <row r="215" spans="1:6">
+    <row r="215" spans="1:6" hidden="1">
       <c r="A215">
         <v>4</v>
       </c>
@@ -13105,7 +13066,7 @@
         <v>113018.650142071</v>
       </c>
     </row>
-    <row r="216" spans="1:6">
+    <row r="216" spans="1:6" hidden="1">
       <c r="A216">
         <v>4</v>
       </c>
@@ -13125,7 +13086,7 @@
         <v>20266571.003876299</v>
       </c>
     </row>
-    <row r="217" spans="1:6">
+    <row r="217" spans="1:6" hidden="1">
       <c r="A217">
         <v>4</v>
       </c>
@@ -13145,7 +13106,7 @@
         <v>526160.17732777901</v>
       </c>
     </row>
-    <row r="218" spans="1:6">
+    <row r="218" spans="1:6" hidden="1">
       <c r="A218">
         <v>4</v>
       </c>
@@ -13165,7 +13126,7 @@
         <v>132246.891448468</v>
       </c>
     </row>
-    <row r="219" spans="1:6">
+    <row r="219" spans="1:6" hidden="1">
       <c r="A219">
         <v>4</v>
       </c>
@@ -13185,7 +13146,7 @@
         <v>4989.2792321715797</v>
       </c>
     </row>
-    <row r="220" spans="1:6">
+    <row r="220" spans="1:6" hidden="1">
       <c r="A220">
         <v>4</v>
       </c>
@@ -13205,7 +13166,7 @@
         <v>26384.555010532</v>
       </c>
     </row>
-    <row r="221" spans="1:6">
+    <row r="221" spans="1:6" hidden="1">
       <c r="A221">
         <v>4</v>
       </c>
@@ -13225,7 +13186,7 @@
         <v>3278.7784756557498</v>
       </c>
     </row>
-    <row r="222" spans="1:6">
+    <row r="222" spans="1:6" hidden="1">
       <c r="A222">
         <v>4</v>
       </c>
@@ -13245,7 +13206,7 @@
         <v>5350346.3524511596</v>
       </c>
     </row>
-    <row r="223" spans="1:6">
+    <row r="223" spans="1:6" hidden="1">
       <c r="A223">
         <v>4</v>
       </c>
@@ -13265,7 +13226,7 @@
         <v>22221.138833602399</v>
       </c>
     </row>
-    <row r="224" spans="1:6">
+    <row r="224" spans="1:6" hidden="1">
       <c r="A224">
         <v>4</v>
       </c>
@@ -13285,7 +13246,7 @@
         <v>79282.859856115698</v>
       </c>
     </row>
-    <row r="225" spans="1:6">
+    <row r="225" spans="1:6" hidden="1">
       <c r="A225">
         <v>4</v>
       </c>
@@ -13305,7 +13266,7 @@
         <v>80340.286299578103</v>
       </c>
     </row>
-    <row r="226" spans="1:6">
+    <row r="226" spans="1:6" hidden="1">
       <c r="A226">
         <v>4</v>
       </c>
@@ -13325,7 +13286,7 @@
         <v>68969.6689954701</v>
       </c>
     </row>
-    <row r="227" spans="1:6">
+    <row r="227" spans="1:6" hidden="1">
       <c r="A227">
         <v>4</v>
       </c>
@@ -13345,7 +13306,7 @@
         <v>1347437.3266046999</v>
       </c>
     </row>
-    <row r="228" spans="1:6">
+    <row r="228" spans="1:6" hidden="1">
       <c r="A228">
         <v>4</v>
       </c>
@@ -13365,7 +13326,7 @@
         <v>19990.388481015099</v>
       </c>
     </row>
-    <row r="229" spans="1:6">
+    <row r="229" spans="1:6" hidden="1">
       <c r="A229">
         <v>4</v>
       </c>
@@ -13385,7 +13346,7 @@
         <v>43469.044830127801</v>
       </c>
     </row>
-    <row r="230" spans="1:6">
+    <row r="230" spans="1:6" hidden="1">
       <c r="A230">
         <v>4</v>
       </c>
@@ -13405,7 +13366,7 @@
         <v>144038.20063327899</v>
       </c>
     </row>
-    <row r="231" spans="1:6">
+    <row r="231" spans="1:6" hidden="1">
       <c r="A231">
         <v>4</v>
       </c>
@@ -13425,7 +13386,7 @@
         <v>3907.4142173416099</v>
       </c>
     </row>
-    <row r="232" spans="1:6">
+    <row r="232" spans="1:6" hidden="1">
       <c r="A232">
         <v>5</v>
       </c>
@@ -13445,7 +13406,7 @@
         <v>1481846.78314778</v>
       </c>
     </row>
-    <row r="233" spans="1:6">
+    <row r="233" spans="1:6" hidden="1">
       <c r="A233">
         <v>50</v>
       </c>
@@ -13465,7 +13426,7 @@
         <v>19760.836409104701</v>
       </c>
     </row>
-    <row r="234" spans="1:6">
+    <row r="234" spans="1:6" hidden="1">
       <c r="A234">
         <v>50</v>
       </c>
@@ -13485,7 +13446,7 @@
         <v>68946883.431366801</v>
       </c>
     </row>
-    <row r="235" spans="1:6">
+    <row r="235" spans="1:6" hidden="1">
       <c r="A235">
         <v>53</v>
       </c>
@@ -13505,7 +13466,7 @@
         <v>37425.287233222698</v>
       </c>
     </row>
-    <row r="236" spans="1:6">
+    <row r="236" spans="1:6" hidden="1">
       <c r="A236">
         <v>53</v>
       </c>
@@ -13525,7 +13486,7 @@
         <v>140747.41044696601</v>
       </c>
     </row>
-    <row r="237" spans="1:6">
+    <row r="237" spans="1:6" hidden="1">
       <c r="A237">
         <v>7</v>
       </c>
@@ -13545,7 +13506,7 @@
         <v>88029.328712349801</v>
       </c>
     </row>
-    <row r="238" spans="1:6">
+    <row r="238" spans="1:6" hidden="1">
       <c r="A238">
         <v>7</v>
       </c>
@@ -13565,7 +13526,7 @@
         <v>14964.7600620554</v>
       </c>
     </row>
-    <row r="239" spans="1:6">
+    <row r="239" spans="1:6" hidden="1">
       <c r="A239">
         <v>7</v>
       </c>
@@ -13585,7 +13546,7 @@
         <v>2687.9095478848699</v>
       </c>
     </row>
-    <row r="240" spans="1:6">
+    <row r="240" spans="1:6" hidden="1">
       <c r="A240">
         <v>7</v>
       </c>
@@ -13605,7 +13566,7 @@
         <v>19056073.987434998</v>
       </c>
     </row>
-    <row r="241" spans="1:6">
+    <row r="241" spans="1:6" hidden="1">
       <c r="A241">
         <v>7</v>
       </c>
@@ -13625,7 +13586,7 @@
         <v>155489.14429925001</v>
       </c>
     </row>
-    <row r="242" spans="1:6">
+    <row r="242" spans="1:6" hidden="1">
       <c r="A242">
         <v>7</v>
       </c>
@@ -13645,7 +13606,7 @@
         <v>178.36501467493201</v>
       </c>
     </row>
-    <row r="243" spans="1:6">
+    <row r="243" spans="1:6" hidden="1">
       <c r="A243">
         <v>7</v>
       </c>
@@ -13665,7 +13626,7 @@
         <v>1219666.9520560901</v>
       </c>
     </row>
-    <row r="244" spans="1:6">
+    <row r="244" spans="1:6" hidden="1">
       <c r="A244">
         <v>82</v>
       </c>
@@ -13906,7 +13867,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F1"/>
+  <autoFilter ref="A1:F255">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="9"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
